--- a/BaoCao/Testcase.xlsx
+++ b/BaoCao/Testcase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Assignment\BaoCao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF076C8-C328-4559-9F43-8465692248D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321E839A-492E-4902-84BD-D255FAAE12ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -162,9 +162,6 @@
 </t>
   </si>
   <si>
-    <t>Thêm nhân viên thiêu Địa chỉ</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.Nhập email:"nv@gmail.com"
 2. nhập tên nv: "Văn dương"
 3.Nhập địa chỉ:""
@@ -360,6 +357,9 @@
   </si>
   <si>
     <t>Hiển thị thông báo thêm thành công</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -776,8 +776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1025,11 +1025,11 @@
         <v>34</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>11</v>
@@ -1052,17 +1052,17 @@
         <v>35</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="F11" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>13</v>
@@ -1076,20 +1076,20 @@
     </row>
     <row r="12" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>43</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>44</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="F12" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>13</v>
@@ -1106,7 +1106,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
@@ -1118,14 +1118,14 @@
     </row>
     <row r="14" spans="1:10" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>48</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>49</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>11</v>
@@ -1145,14 +1145,14 @@
     </row>
     <row r="15" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>11</v>
@@ -1172,14 +1172,14 @@
     </row>
     <row r="16" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>11</v>
@@ -1199,14 +1199,14 @@
     </row>
     <row r="17" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>11</v>
@@ -1226,20 +1226,20 @@
     </row>
     <row r="18" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="F18" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G18" s="12" t="s">
         <v>13</v>
@@ -1256,7 +1256,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
@@ -1268,14 +1268,14 @@
     </row>
     <row r="20" spans="1:9" ht="89.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>11</v>
@@ -1295,14 +1295,14 @@
     </row>
     <row r="21" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C21" s="12"/>
       <c r="D21" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>11</v>
@@ -1322,14 +1322,14 @@
     </row>
     <row r="22" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>11</v>
@@ -1349,14 +1349,14 @@
     </row>
     <row r="23" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>11</v>
@@ -1376,14 +1376,14 @@
     </row>
     <row r="24" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>11</v>
@@ -1403,14 +1403,14 @@
     </row>
     <row r="25" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>11</v>
@@ -1430,20 +1430,20 @@
     </row>
     <row r="26" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="F26" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G26" s="12" t="s">
         <v>13</v>
